--- a/app/Imports/Catalog Fields Dummy_Data.xlsx
+++ b/app/Imports/Catalog Fields Dummy_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\gitHub\Catalogue\app\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC3326-A587-46E4-820B-1AB728156445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Biospecimens" sheetId="4" r:id="rId1"/>
@@ -641,7 +642,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -720,7 +721,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,10 +998,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3:L12"/>
     </sheetView>
   </sheetViews>
@@ -1549,7 +1550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1803,11 +1804,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B9" sqref="B9:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2497,13 +2498,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2919,11 +2920,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
